--- a/aoiConditions/train1P1Block2.xlsx
+++ b/aoiConditions/train1P1Block2.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/05_titopo2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/06_titoka3.wav</t>
-  </si>
-  <si>
-    <t>pngimages/05_megaphone.png</t>
-  </si>
-  <si>
-    <t>pngimages/06_tent.png</t>
+    <t>trainingaudio/23_patoko1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki1.wav</t>
+  </si>
+  <si>
+    <t>pngimages/23_lemon.png</t>
+  </si>
+  <si>
+    <t>pngimages/22_egg.png</t>
   </si>
 </sst>
 </file>

--- a/aoiConditions/train1P1Block2.xlsx
+++ b/aoiConditions/train1P1Block2.xlsx
@@ -22,10 +22,10 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/23_patoko1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki1.wav</t>
+    <t>trainingaudio/23_patoko1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki1.mp3</t>
   </si>
   <si>
     <t>pngimages/23_lemon.png</t>

--- a/aoiConditions/train1P1Block2.xlsx
+++ b/aoiConditions/train1P1Block2.xlsx
@@ -22,10 +22,10 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/23_patoko1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki1.mp3</t>
+    <t>trainingaudio/23_patoko1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki1.ogg</t>
   </si>
   <si>
     <t>pngimages/23_lemon.png</t>

--- a/aoiConditions/train1P1Block2.xlsx
+++ b/aoiConditions/train1P1Block2.xlsx
@@ -22,10 +22,10 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/23_patoko1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/22_kakoki1.ogg</t>
+    <t>trainingaudio/23_patoko1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/22_kakoki1.wav</t>
   </si>
   <si>
     <t>pngimages/23_lemon.png</t>
